--- a/files/bsa_to_iea_mapping.xlsx
+++ b/files/bsa_to_iea_mapping.xlsx
@@ -42,8 +42,7 @@
     <t xml:space="preserve">Indian Evidence Act, 1872 (IEA) provided that it extended to the whole of India, whereas Bharatiya Sakshya Adhiniyam, 2023 (BSA) excludes this provision of territorial extent.</t>
   </si>
   <si>
-    <t xml:space="preserve">IEA 3
- Interpretation clause</t>
+    <t xml:space="preserve">IEA 3 Interpretation clause</t>
   </si>
   <si>
     <t xml:space="preserve">Definitions.</t>
@@ -1413,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
